--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link1_request1200.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link1_request1200.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2805"/>
+  <dimension ref="A1:C2804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2312,7 +2312,7 @@
         <v>0.4232</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="172">
@@ -2323,7 +2323,7 @@
         <v>0.4888</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="173">
@@ -2334,7 +2334,7 @@
         <v>0.16</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="174">
@@ -2345,7 +2345,7 @@
         <v>0.588</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="175">
@@ -2356,7 +2356,7 @@
         <v>0.1208</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="176">
@@ -2367,7 +2367,7 @@
         <v>0.4192000000000001</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="177">
@@ -2378,7 +2378,7 @@
         <v>0.3328</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="178">
@@ -2389,7 +2389,7 @@
         <v>0.0016</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="179">
@@ -2400,7 +2400,7 @@
         <v>0.1272</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="180">
@@ -2411,7 +2411,7 @@
         <v>0.492</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="181">
@@ -2422,7 +2422,7 @@
         <v>0.904</v>
       </c>
       <c r="C181" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="182">
@@ -2433,7 +2433,7 @@
         <v>0.4144</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="183">
@@ -2444,7 +2444,7 @@
         <v>1.4128</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="184">
@@ -2455,7 +2455,7 @@
         <v>0.4048</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="185">
@@ -2466,7 +2466,7 @@
         <v>0.612</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="186">
@@ -3830,7 +3830,7 @@
         <v>0.352</v>
       </c>
       <c r="C309" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="310">
@@ -3841,7 +3841,7 @@
         <v>0.148</v>
       </c>
       <c r="C310" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="311">
@@ -3852,7 +3852,7 @@
         <v>1.4</v>
       </c>
       <c r="C311" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="312">
@@ -3863,7 +3863,7 @@
         <v>0.748</v>
       </c>
       <c r="C312" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="313">
@@ -3874,7 +3874,7 @@
         <v>0.384</v>
       </c>
       <c r="C313" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="314">
@@ -3885,7 +3885,7 @@
         <v>0.764</v>
       </c>
       <c r="C314" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="315">
@@ -3896,7 +3896,7 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="C315" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="316">
@@ -5150,7 +5150,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="C429" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="430">
@@ -5161,7 +5161,7 @@
         <v>0.104</v>
       </c>
       <c r="C430" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="431">
@@ -5172,7 +5172,7 @@
         <v>0.72</v>
       </c>
       <c r="C431" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="432">
@@ -5183,7 +5183,7 @@
         <v>0.924</v>
       </c>
       <c r="C432" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="433">
@@ -5194,7 +5194,7 @@
         <v>0.08</v>
       </c>
       <c r="C433" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="434">
@@ -5205,7 +5205,7 @@
         <v>0.868</v>
       </c>
       <c r="C434" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="435">
@@ -5216,7 +5216,7 @@
         <v>0.264</v>
       </c>
       <c r="C435" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="436">
@@ -5227,7 +5227,7 @@
         <v>1.2</v>
       </c>
       <c r="C436" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="437">
@@ -6162,7 +6162,7 @@
         <v>1.328</v>
       </c>
       <c r="C521" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="522">
@@ -6173,7 +6173,7 @@
         <v>7.512</v>
       </c>
       <c r="C522" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="523">
@@ -6184,7 +6184,7 @@
         <v>0.7</v>
       </c>
       <c r="C523" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="524">
@@ -6195,7 +6195,7 @@
         <v>1.748</v>
       </c>
       <c r="C524" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="525">
@@ -6206,7 +6206,7 @@
         <v>3.224</v>
       </c>
       <c r="C525" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="526">
@@ -7768,7 +7768,7 @@
         <v>0.3336</v>
       </c>
       <c r="C667" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="668">
@@ -7779,7 +7779,7 @@
         <v>3.62</v>
       </c>
       <c r="C668" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="669">
@@ -7790,7 +7790,7 @@
         <v>1.98</v>
       </c>
       <c r="C669" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="670">
@@ -7801,7 +7801,7 @@
         <v>0.6856</v>
       </c>
       <c r="C670" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="671">
@@ -7812,7 +7812,7 @@
         <v>2.424</v>
       </c>
       <c r="C671" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="672">
@@ -7823,7 +7823,7 @@
         <v>1.4128</v>
       </c>
       <c r="C672" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="673">
@@ -7834,7 +7834,7 @@
         <v>3.2152</v>
       </c>
       <c r="C673" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="674">
@@ -8593,7 +8593,7 @@
         <v>1.5216</v>
       </c>
       <c r="C742" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="743">
@@ -8604,7 +8604,7 @@
         <v>1.4184</v>
       </c>
       <c r="C743" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="744">
@@ -8615,7 +8615,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C744" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="745">
@@ -9066,7 +9066,7 @@
         <v>3.9144</v>
       </c>
       <c r="C785" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="786">
@@ -9077,7 +9077,7 @@
         <v>7.9048</v>
       </c>
       <c r="C786" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="787">
@@ -9338,7 +9338,7 @@
         <v>808</v>
       </c>
       <c r="B810" t="n">
-        <v>11.4088</v>
+        <v>6.9088</v>
       </c>
       <c r="C810" t="n">
         <v>2187501</v>
@@ -9349,7 +9349,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="n">
-        <v>7.412</v>
+        <v>4.4248</v>
       </c>
       <c r="C811" t="n">
         <v>2187501</v>
@@ -9360,7 +9360,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="n">
-        <v>3.9088</v>
+        <v>7.412</v>
       </c>
       <c r="C812" t="n">
         <v>2187501</v>
@@ -9371,7 +9371,7 @@
         <v>811</v>
       </c>
       <c r="B813" t="n">
-        <v>22.9248</v>
+        <v>26.9088</v>
       </c>
       <c r="C813" t="n">
         <v>2187501</v>
@@ -10738,7 +10738,7 @@
         <v>0.8336</v>
       </c>
       <c r="C937" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="938">
@@ -10749,7 +10749,7 @@
         <v>3.9264</v>
       </c>
       <c r="C938" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="939">
@@ -10760,7 +10760,7 @@
         <v>2.828</v>
       </c>
       <c r="C939" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="940">
@@ -10771,7 +10771,7 @@
         <v>0.6856</v>
       </c>
       <c r="C940" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="941">
@@ -10782,7 +10782,7 @@
         <v>2.424</v>
       </c>
       <c r="C941" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="942">
@@ -10793,7 +10793,7 @@
         <v>1.4128</v>
       </c>
       <c r="C942" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="943">
@@ -10804,7 +10804,7 @@
         <v>3.2152</v>
       </c>
       <c r="C943" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="944">
@@ -11387,7 +11387,7 @@
         <v>2.4176</v>
       </c>
       <c r="C996" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="997">
@@ -11398,7 +11398,7 @@
         <v>1.4184</v>
       </c>
       <c r="C997" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="998">
@@ -11409,7 +11409,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C998" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="999">
@@ -11805,7 +11805,7 @@
         <v>3.9144</v>
       </c>
       <c r="C1034" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1035">
@@ -11816,7 +11816,7 @@
         <v>7.9048</v>
       </c>
       <c r="C1035" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1036">
@@ -12077,7 +12077,7 @@
         <v>1057</v>
       </c>
       <c r="B1059" t="n">
-        <v>11.4088</v>
+        <v>6.9088</v>
       </c>
       <c r="C1059" t="n">
         <v>3437501</v>
@@ -12088,7 +12088,7 @@
         <v>1058</v>
       </c>
       <c r="B1060" t="n">
-        <v>7.412</v>
+        <v>4.4248</v>
       </c>
       <c r="C1060" t="n">
         <v>3437501</v>
@@ -12099,7 +12099,7 @@
         <v>1059</v>
       </c>
       <c r="B1061" t="n">
-        <v>3.9088</v>
+        <v>7.412</v>
       </c>
       <c r="C1061" t="n">
         <v>3437501</v>
@@ -12110,7 +12110,7 @@
         <v>1060</v>
       </c>
       <c r="B1062" t="n">
-        <v>22.9248</v>
+        <v>26.9088</v>
       </c>
       <c r="C1062" t="n">
         <v>3437501</v>
@@ -13477,7 +13477,7 @@
         <v>0.8336</v>
       </c>
       <c r="C1186" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1187">
@@ -13488,7 +13488,7 @@
         <v>3.9264</v>
       </c>
       <c r="C1187" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1188">
@@ -13499,7 +13499,7 @@
         <v>2.828</v>
       </c>
       <c r="C1188" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1189">
@@ -13510,7 +13510,7 @@
         <v>0.6856</v>
       </c>
       <c r="C1189" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1190">
@@ -13521,7 +13521,7 @@
         <v>2.424</v>
       </c>
       <c r="C1190" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1191">
@@ -13532,7 +13532,7 @@
         <v>1.4128</v>
       </c>
       <c r="C1191" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1192">
@@ -13543,7 +13543,7 @@
         <v>3.2152</v>
       </c>
       <c r="C1192" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1193">
@@ -14126,7 +14126,7 @@
         <v>2.4176</v>
       </c>
       <c r="C1245" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1246">
@@ -14137,7 +14137,7 @@
         <v>1.4184</v>
       </c>
       <c r="C1246" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1247">
@@ -14148,7 +14148,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C1247" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1248">
@@ -14544,7 +14544,7 @@
         <v>3.9144</v>
       </c>
       <c r="C1283" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1284">
@@ -14555,7 +14555,7 @@
         <v>7.9048</v>
       </c>
       <c r="C1284" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1285">
@@ -14816,7 +14816,7 @@
         <v>1306</v>
       </c>
       <c r="B1308" t="n">
-        <v>11.4088</v>
+        <v>6.9088</v>
       </c>
       <c r="C1308" t="n">
         <v>4687501</v>
@@ -14827,7 +14827,7 @@
         <v>1307</v>
       </c>
       <c r="B1309" t="n">
-        <v>7.412</v>
+        <v>4.4248</v>
       </c>
       <c r="C1309" t="n">
         <v>4687501</v>
@@ -14838,7 +14838,7 @@
         <v>1308</v>
       </c>
       <c r="B1310" t="n">
-        <v>3.9088</v>
+        <v>7.412</v>
       </c>
       <c r="C1310" t="n">
         <v>4687501</v>
@@ -14849,7 +14849,7 @@
         <v>1309</v>
       </c>
       <c r="B1311" t="n">
-        <v>22.9248</v>
+        <v>26.9088</v>
       </c>
       <c r="C1311" t="n">
         <v>4687501</v>
@@ -16216,7 +16216,7 @@
         <v>0.8336</v>
       </c>
       <c r="C1435" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1436">
@@ -16227,7 +16227,7 @@
         <v>3.9264</v>
       </c>
       <c r="C1436" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1437">
@@ -16238,7 +16238,7 @@
         <v>2.828</v>
       </c>
       <c r="C1437" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1438">
@@ -16249,7 +16249,7 @@
         <v>0.6856</v>
       </c>
       <c r="C1438" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1439">
@@ -16260,7 +16260,7 @@
         <v>2.424</v>
       </c>
       <c r="C1439" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1440">
@@ -16271,7 +16271,7 @@
         <v>1.4128</v>
       </c>
       <c r="C1440" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1441">
@@ -16282,7 +16282,7 @@
         <v>3.2152</v>
       </c>
       <c r="C1441" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1442">
@@ -16865,7 +16865,7 @@
         <v>2.4176</v>
       </c>
       <c r="C1494" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1495">
@@ -16876,7 +16876,7 @@
         <v>1.4184</v>
       </c>
       <c r="C1495" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1496">
@@ -16887,7 +16887,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C1496" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1497">
@@ -17283,7 +17283,7 @@
         <v>3.9144</v>
       </c>
       <c r="C1532" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1533">
@@ -17294,7 +17294,7 @@
         <v>7.9048</v>
       </c>
       <c r="C1533" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1534">
@@ -17555,7 +17555,7 @@
         <v>1555</v>
       </c>
       <c r="B1557" t="n">
-        <v>11.4088</v>
+        <v>6.9088</v>
       </c>
       <c r="C1557" t="n">
         <v>5937501</v>
@@ -17566,7 +17566,7 @@
         <v>1556</v>
       </c>
       <c r="B1558" t="n">
-        <v>7.412</v>
+        <v>4.4248</v>
       </c>
       <c r="C1558" t="n">
         <v>5937501</v>
@@ -17577,7 +17577,7 @@
         <v>1557</v>
       </c>
       <c r="B1559" t="n">
-        <v>3.9088</v>
+        <v>7.412</v>
       </c>
       <c r="C1559" t="n">
         <v>5937501</v>
@@ -17588,7 +17588,7 @@
         <v>1558</v>
       </c>
       <c r="B1560" t="n">
-        <v>22.9248</v>
+        <v>26.9088</v>
       </c>
       <c r="C1560" t="n">
         <v>5937501</v>
@@ -18955,7 +18955,7 @@
         <v>0.8336</v>
       </c>
       <c r="C1684" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1685">
@@ -18966,7 +18966,7 @@
         <v>3.9264</v>
       </c>
       <c r="C1685" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1686">
@@ -18977,7 +18977,7 @@
         <v>2.828</v>
       </c>
       <c r="C1686" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1687">
@@ -18988,7 +18988,7 @@
         <v>0.6856</v>
       </c>
       <c r="C1687" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1688">
@@ -18999,7 +18999,7 @@
         <v>2.424</v>
       </c>
       <c r="C1688" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1689">
@@ -19010,7 +19010,7 @@
         <v>1.4128</v>
       </c>
       <c r="C1689" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1690">
@@ -19021,7 +19021,7 @@
         <v>3.2152</v>
       </c>
       <c r="C1690" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1691">
@@ -19604,7 +19604,7 @@
         <v>2.4176</v>
       </c>
       <c r="C1743" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1744">
@@ -19615,7 +19615,7 @@
         <v>1.4184</v>
       </c>
       <c r="C1744" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1745">
@@ -19626,7 +19626,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C1745" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1746">
@@ -20022,7 +20022,7 @@
         <v>3.9144</v>
       </c>
       <c r="C1781" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1782">
@@ -20033,7 +20033,7 @@
         <v>7.9048</v>
       </c>
       <c r="C1782" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="1783">
@@ -20294,7 +20294,7 @@
         <v>1804</v>
       </c>
       <c r="B1806" t="n">
-        <v>11.4088</v>
+        <v>6.9088</v>
       </c>
       <c r="C1806" t="n">
         <v>7187501</v>
@@ -20305,7 +20305,7 @@
         <v>1805</v>
       </c>
       <c r="B1807" t="n">
-        <v>7.412</v>
+        <v>4.4248</v>
       </c>
       <c r="C1807" t="n">
         <v>7187501</v>
@@ -20316,7 +20316,7 @@
         <v>1806</v>
       </c>
       <c r="B1808" t="n">
-        <v>3.9088</v>
+        <v>7.412</v>
       </c>
       <c r="C1808" t="n">
         <v>7187501</v>
@@ -20327,7 +20327,7 @@
         <v>1807</v>
       </c>
       <c r="B1809" t="n">
-        <v>22.9248</v>
+        <v>26.9088</v>
       </c>
       <c r="C1809" t="n">
         <v>7187501</v>
@@ -21694,7 +21694,7 @@
         <v>0.8336</v>
       </c>
       <c r="C1933" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1934">
@@ -21705,7 +21705,7 @@
         <v>3.9264</v>
       </c>
       <c r="C1934" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1935">
@@ -21716,7 +21716,7 @@
         <v>2.828</v>
       </c>
       <c r="C1935" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1936">
@@ -21727,7 +21727,7 @@
         <v>0.6856</v>
       </c>
       <c r="C1936" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1937">
@@ -21738,7 +21738,7 @@
         <v>2.424</v>
       </c>
       <c r="C1937" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1938">
@@ -21749,7 +21749,7 @@
         <v>1.4128</v>
       </c>
       <c r="C1938" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1939">
@@ -21760,7 +21760,7 @@
         <v>3.2152</v>
       </c>
       <c r="C1939" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1940">
@@ -22343,7 +22343,7 @@
         <v>2.4176</v>
       </c>
       <c r="C1992" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1993">
@@ -22354,7 +22354,7 @@
         <v>1.4184</v>
       </c>
       <c r="C1993" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1994">
@@ -22365,7 +22365,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C1994" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1995">
@@ -22761,7 +22761,7 @@
         <v>3.9144</v>
       </c>
       <c r="C2030" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2031">
@@ -22772,7 +22772,7 @@
         <v>7.9048</v>
       </c>
       <c r="C2031" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2032">
@@ -23033,7 +23033,7 @@
         <v>2053</v>
       </c>
       <c r="B2055" t="n">
-        <v>11.4088</v>
+        <v>6.9088</v>
       </c>
       <c r="C2055" t="n">
         <v>8437501</v>
@@ -23044,7 +23044,7 @@
         <v>2054</v>
       </c>
       <c r="B2056" t="n">
-        <v>7.412</v>
+        <v>4.4248</v>
       </c>
       <c r="C2056" t="n">
         <v>8437501</v>
@@ -23055,7 +23055,7 @@
         <v>2055</v>
       </c>
       <c r="B2057" t="n">
-        <v>3.9088</v>
+        <v>7.412</v>
       </c>
       <c r="C2057" t="n">
         <v>8437501</v>
@@ -23066,7 +23066,7 @@
         <v>2056</v>
       </c>
       <c r="B2058" t="n">
-        <v>22.9248</v>
+        <v>26.9088</v>
       </c>
       <c r="C2058" t="n">
         <v>8437501</v>
@@ -24433,7 +24433,7 @@
         <v>0.8336</v>
       </c>
       <c r="C2182" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2183">
@@ -24444,7 +24444,7 @@
         <v>3.9264</v>
       </c>
       <c r="C2183" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2184">
@@ -24455,7 +24455,7 @@
         <v>2.828</v>
       </c>
       <c r="C2184" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2185">
@@ -24466,7 +24466,7 @@
         <v>0.6856</v>
       </c>
       <c r="C2185" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2186">
@@ -24477,7 +24477,7 @@
         <v>2.424</v>
       </c>
       <c r="C2186" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2187">
@@ -24488,7 +24488,7 @@
         <v>1.4128</v>
       </c>
       <c r="C2187" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2188">
@@ -24499,7 +24499,7 @@
         <v>3.2152</v>
       </c>
       <c r="C2188" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2189">
@@ -25082,7 +25082,7 @@
         <v>2.4176</v>
       </c>
       <c r="C2241" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2242">
@@ -25093,7 +25093,7 @@
         <v>1.4184</v>
       </c>
       <c r="C2242" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2243">
@@ -25104,7 +25104,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C2243" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2244">
@@ -25500,7 +25500,7 @@
         <v>3.9144</v>
       </c>
       <c r="C2279" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2280">
@@ -25511,7 +25511,7 @@
         <v>7.9048</v>
       </c>
       <c r="C2280" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2281">
@@ -25772,7 +25772,7 @@
         <v>2302</v>
       </c>
       <c r="B2304" t="n">
-        <v>11.4088</v>
+        <v>6.9088</v>
       </c>
       <c r="C2304" t="n">
         <v>9687501</v>
@@ -25783,7 +25783,7 @@
         <v>2303</v>
       </c>
       <c r="B2305" t="n">
-        <v>7.412</v>
+        <v>4.4248</v>
       </c>
       <c r="C2305" t="n">
         <v>9687501</v>
@@ -25794,7 +25794,7 @@
         <v>2304</v>
       </c>
       <c r="B2306" t="n">
-        <v>3.9088</v>
+        <v>7.412</v>
       </c>
       <c r="C2306" t="n">
         <v>9687501</v>
@@ -25805,7 +25805,7 @@
         <v>2305</v>
       </c>
       <c r="B2307" t="n">
-        <v>22.9248</v>
+        <v>26.9088</v>
       </c>
       <c r="C2307" t="n">
         <v>9687501</v>
@@ -27172,7 +27172,7 @@
         <v>0.8336</v>
       </c>
       <c r="C2431" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2432">
@@ -27183,7 +27183,7 @@
         <v>3.9264</v>
       </c>
       <c r="C2432" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2433">
@@ -27194,7 +27194,7 @@
         <v>2.828</v>
       </c>
       <c r="C2433" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2434">
@@ -27205,7 +27205,7 @@
         <v>0.6856</v>
       </c>
       <c r="C2434" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2435">
@@ -27216,7 +27216,7 @@
         <v>2.424</v>
       </c>
       <c r="C2435" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2436">
@@ -27227,7 +27227,7 @@
         <v>1.4128</v>
       </c>
       <c r="C2436" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2437">
@@ -27238,7 +27238,7 @@
         <v>3.2152</v>
       </c>
       <c r="C2437" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2438">
@@ -27821,7 +27821,7 @@
         <v>2.4176</v>
       </c>
       <c r="C2490" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2491">
@@ -27832,7 +27832,7 @@
         <v>1.4184</v>
       </c>
       <c r="C2491" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2492">
@@ -27843,7 +27843,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C2492" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="2493">
@@ -28239,7 +28239,7 @@
         <v>3.9144</v>
       </c>
       <c r="C2528" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="2529">
@@ -28250,7 +28250,7 @@
         <v>7.9048</v>
       </c>
       <c r="C2529" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="2530">
@@ -28511,7 +28511,7 @@
         <v>2551</v>
       </c>
       <c r="B2553" t="n">
-        <v>11.4088</v>
+        <v>6.9088</v>
       </c>
       <c r="C2553" t="n">
         <v>10937501</v>
@@ -28522,7 +28522,7 @@
         <v>2552</v>
       </c>
       <c r="B2554" t="n">
-        <v>7.412</v>
+        <v>4.4248</v>
       </c>
       <c r="C2554" t="n">
         <v>10937501</v>
@@ -28533,7 +28533,7 @@
         <v>2553</v>
       </c>
       <c r="B2555" t="n">
-        <v>3.9088</v>
+        <v>7.412</v>
       </c>
       <c r="C2555" t="n">
         <v>10937501</v>
@@ -28544,7 +28544,7 @@
         <v>2554</v>
       </c>
       <c r="B2556" t="n">
-        <v>22.9248</v>
+        <v>26.9088</v>
       </c>
       <c r="C2556" t="n">
         <v>10937501</v>
@@ -29911,7 +29911,7 @@
         <v>0.8336</v>
       </c>
       <c r="C2680" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2681">
@@ -29922,7 +29922,7 @@
         <v>3.9264</v>
       </c>
       <c r="C2681" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2682">
@@ -29933,7 +29933,7 @@
         <v>2.828</v>
       </c>
       <c r="C2682" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2683">
@@ -29944,7 +29944,7 @@
         <v>0.6856</v>
       </c>
       <c r="C2683" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2684">
@@ -29955,7 +29955,7 @@
         <v>2.424</v>
       </c>
       <c r="C2684" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2685">
@@ -29966,7 +29966,7 @@
         <v>1.4128</v>
       </c>
       <c r="C2685" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2686">
@@ -29977,7 +29977,7 @@
         <v>3.2152</v>
       </c>
       <c r="C2686" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="2687">
@@ -30560,7 +30560,7 @@
         <v>2.4176</v>
       </c>
       <c r="C2739" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2740">
@@ -30571,7 +30571,7 @@
         <v>1.4184</v>
       </c>
       <c r="C2740" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2741">
@@ -30582,7 +30582,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C2741" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="2742">
@@ -30978,7 +30978,7 @@
         <v>3.9144</v>
       </c>
       <c r="C2777" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="2778">
@@ -30989,7 +30989,7 @@
         <v>7.9048</v>
       </c>
       <c r="C2778" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="2779">
@@ -31239,7 +31239,7 @@
         <v>2799</v>
       </c>
       <c r="B2801" t="n">
-        <v>24.924</v>
+        <v>17.924</v>
       </c>
       <c r="C2801" t="n">
         <v>12187501</v>
@@ -31250,7 +31250,7 @@
         <v>2800</v>
       </c>
       <c r="B2802" t="n">
-        <v>11.4088</v>
+        <v>6.912</v>
       </c>
       <c r="C2802" t="n">
         <v>12187501</v>
@@ -31261,7 +31261,7 @@
         <v>2801</v>
       </c>
       <c r="B2803" t="n">
-        <v>7.412</v>
+        <v>6.817600000000001</v>
       </c>
       <c r="C2803" t="n">
         <v>12187501</v>
@@ -31272,20 +31272,9 @@
         <v>2802</v>
       </c>
       <c r="B2804" t="n">
-        <v>3.9088</v>
+        <v>19.9248</v>
       </c>
       <c r="C2804" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="2805">
-      <c r="A2805" s="1" t="n">
-        <v>2803</v>
-      </c>
-      <c r="B2805" t="n">
-        <v>19.9248</v>
-      </c>
-      <c r="C2805" t="n">
         <v>12187501</v>
       </c>
     </row>
